--- a/generate_cards/Early_Version/papers_ev.xlsx
+++ b/generate_cards/Early_Version/papers_ev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Desktop\RoboTwin 2.0 Citation Overview\generate_cards\Early_Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31169ABA-639E-448A-9D03-974E104821C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28423EB8-839F-4BE9-B919-12A5FD6687F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>link</t>
   </si>
@@ -646,6 +646,10 @@
   </si>
   <si>
     <t>../img/tab_EV_img/GSWorld_img.png</t>
+  </si>
+  <si>
+    <t>HGDiffuser; Task-Oriented Grasping; Diffusion-Based Framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1019,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1471,9 @@
       <c r="D26" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="27" spans="1:5" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">

--- a/generate_cards/Early_Version/papers_ev.xlsx
+++ b/generate_cards/Early_Version/papers_ev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Desktop\RoboTwin 2.0 Citation Overview\generate_cards\Early_Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28423EB8-839F-4BE9-B919-12A5FD6687F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE0AD27-432C-408C-9361-B9A8B8B5EA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,12 +543,6 @@
     <t>../img/tab_EV_img/RoboFactory_img.png</t>
   </si>
   <si>
-    <t>../img/tab_EV_img/You Only Teach Once_img.png</t>
-  </si>
-  <si>
-    <t>../img/tab_EV_img/Distributed multi-robot task_img.jpg</t>
-  </si>
-  <si>
     <t>../img/tab_EV_img/ReBot_img.png</t>
   </si>
   <si>
@@ -558,21 +552,9 @@
     <t>../img/tab_EV_img/CordViP_img.png</t>
   </si>
   <si>
-    <t>../img/tab_EV_img/Vision-Based Contact Force Sensing in Robotic_img.png</t>
-  </si>
-  <si>
     <t>../img/tab_EV_img/SEM_img.png</t>
   </si>
   <si>
-    <t>../img/tab_EV_img/Benchmarking Generalizable Bimanual Manipulation_img.png</t>
-  </si>
-  <si>
-    <t>../img/tab_EV_img/Rethinking Bimanual Robotic Manipulation_img.png</t>
-  </si>
-  <si>
-    <t>../img/tab_EV_img/Efficient Task-specific Conditional Diffusion Policies_img.png</t>
-  </si>
-  <si>
     <t>../img/tab_EV_img/HybridGen_img.png</t>
   </si>
   <si>
@@ -588,36 +570,24 @@
     <t>../img/tab_EV_img/ManiFlow_img.png</t>
   </si>
   <si>
-    <t>../img/tab_EV_img/Diffusion-Based Imaginative Coordination_img.png</t>
-  </si>
-  <si>
     <t>Bimanual manipulation is crucial in robotics, enabling complex tasks in industrial automation and household services. However, it poses significant challenges due to the high-dimensional action space and intricate coordination requirements. While video prediction has been recently studied for representation learning and control, leveraging its ability to capture rich dynamic and behavioral information, its potential for enhancing bimanual coordination remains underexplored. To bridge this gap, we propose a unified diffusion-based framework for the joint optimization of video and action prediction. Specifically, we propose a multi-frame latent prediction strategy that encodes future states in a compressed latent space, preserving task-relevant features. Furthermore, we introduce a unidirectional attention mechanism where video prediction is conditioned on the action, while action prediction remains independent of video prediction. This design allows us to omit video prediction during inference, significantly enhancing efficiency. Experiments on two simulated benchmarks and a real-world setting demonstrate a significant improvement in the success rate over the strong baseline ACT using our method, achieving a /textbf{24.9/%} increase on ALOHA, an /textbf{11.1/%} increase on RoboTwin, and a /textbf{32.5/%} increase in real-world experiments. </t>
   </si>
   <si>
     <t>../img/tab_EV_img/HumanoidGen_img.png</t>
   </si>
   <si>
-    <t>../img/tab_EV_img/LLM-driven Indoor_img.png</t>
-  </si>
-  <si>
     <t>../img/tab_EV_img/AnyPos_img.png</t>
   </si>
   <si>
     <t>../img/tab_EV_img/HGDiffuser_img.png</t>
   </si>
   <si>
-    <t>../img/tab_EV_img/A Survey of Robotic Navigation_img.png</t>
-  </si>
-  <si>
     <t>../img/tab_EV_img/PRISM_img.png</t>
   </si>
   <si>
     <t>../img/tab_EV_img/ControlVLA_img.png</t>
   </si>
   <si>
-    <t>../img/tab_EV_img/Modality-Composable Diffusion Policy_img.png</t>
-  </si>
-  <si>
     <t>../img/tab_EV_img/TypeTele_img.png</t>
   </si>
   <si>
@@ -633,23 +603,53 @@
     <t>../img/tab_EV_img/SafeBimanual_img.png</t>
   </si>
   <si>
-    <t>../img/tab_EV_img/Distributionally Robust Contract Theory_img.png</t>
-  </si>
-  <si>
     <t>Advanced AI-Generated Content (AIGC) technologies have injected new impetus into teleoperation, further enhancing its security and efficiency. Edge AIGC networks have been introduced to meet the stringent low-latency requirements of teleoperation. However, the inherent uncertainty of AIGC service quality and the need to incentivize AIGC service providers (ASPs) make the design of a robust incentive mechanism essential. This design is particularly challenging due to both uncertainty and information asymmetry, as teleoperators have limited knowledge of the remaining resource capacities of ASPs. To this end, we propose a distributionally robust optimization (DRO)-based contract theory to design robust reward schemes for AIGC task offloading. Notably, our work extends the contract theory by integrating DRO, addressing the fundamental challenge of contract design under uncertainty. In this paper, contract theory is employed to model the information asymmetry, while DRO is utilized to capture the uncertainty in AIGC service quality. Given the inherent complexity of the original DRO-based contract theory problem, we reformulate it into an equivalent, tractable bi-level optimization problem. To efficiently solve this problem, we develop a Block Coordinate Descent (BCD)-based algorithm to derive robust reward schemes. Simulation results on our unity-based teleoperation platform demonstrate that the proposed method improves teleoperator utility by 2.7/% to 10.74/% under varying degrees of AIGC service quality shifts and increases ASP utility by 60.02/% compared to the SOTA method, i.e., Deep Reinforcement Learning (DRL)-based contract theory. </t>
   </si>
   <si>
     <t>../img/tab_EV_img/AnchorDP3_img.png</t>
   </si>
   <si>
-    <t>../img/tab_EV_img/Digital Twin for Robotic Vision_img.png</t>
-  </si>
-  <si>
     <t>../img/tab_EV_img/GSWorld_img.png</t>
   </si>
   <si>
     <t>HGDiffuser; Task-Oriented Grasping; Diffusion-Based Framework</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../img/tab_EV_img/You-Only-Teach-Once_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_EV_img/Distributed-multi-robot-task_img.jpg</t>
+  </si>
+  <si>
+    <t>../img/tab_EV_img/Vision-Based-Contact-Force-Sensing-in-Robotic_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_EV_img/Benchmarking-Generalizable-Bimanual-Manipulation_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_EV_img/Rethinking-Bimanual-Robotic-Manipulation_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_EV_img/Efficient-Task-specific-Conditional-Diffusion-Policies_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_EV_img/Diffusion-Based-Imaginative-Coordination_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_EV_img/LLM-driven-Indoor_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_EV_img/A-Survey-of-Robotic-Navigation_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_EV_img/Modality-Composable-Diffusion-Policy_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_EV_img/Distributionally-Robust-Contract-Theory_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_EV_img/Digital-Twin-for-Robotic-Vision_img.png</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1140,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1157,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
@@ -1191,7 +1191,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -1208,7 +1208,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -1225,7 +1225,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>71</v>
@@ -1242,7 +1242,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>75</v>
@@ -1259,7 +1259,7 @@
         <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>78</v>
@@ -1276,7 +1276,7 @@
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>81</v>
@@ -1293,7 +1293,7 @@
         <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>85</v>
@@ -1310,7 +1310,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>88</v>
@@ -1327,7 +1327,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>90</v>
@@ -1344,7 +1344,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>94</v>
@@ -1361,7 +1361,7 @@
         <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>97</v>
@@ -1378,7 +1378,7 @@
         <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>99</v>
@@ -1395,13 +1395,13 @@
         <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>104</v>
@@ -1412,7 +1412,7 @@
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>105</v>
@@ -1429,7 +1429,7 @@
         <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>108</v>
@@ -1446,7 +1446,7 @@
         <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>111</v>
@@ -1463,7 +1463,7 @@
         <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>114</v>
@@ -1472,7 +1472,7 @@
         <v>115</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>116</v>
@@ -1497,7 +1497,7 @@
         <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>119</v>
@@ -1514,7 +1514,7 @@
         <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>122</v>
@@ -1531,7 +1531,7 @@
         <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>125</v>
@@ -1548,7 +1548,7 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>128</v>
@@ -1565,7 +1565,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>131</v>
@@ -1582,7 +1582,7 @@
         <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>134</v>
@@ -1599,7 +1599,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>137</v>
@@ -1616,7 +1616,7 @@
         <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>140</v>
@@ -1633,13 +1633,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>144</v>
@@ -1650,7 +1650,7 @@
         <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>145</v>
@@ -1667,7 +1667,7 @@
         <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>150</v>
@@ -1684,7 +1684,7 @@
         <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>151</v>

--- a/generate_cards/Early_Version/papers_ev.xlsx
+++ b/generate_cards/Early_Version/papers_ev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Desktop\RoboTwin 2.0 Citation Overview\generate_cards\Early_Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE0AD27-432C-408C-9361-B9A8B8B5EA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2FD5FC-9F0E-423D-A44F-E9EA30423A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
